--- a/src/test/java/TestData/Addtocart.xlsx
+++ b/src/test/java/TestData/Addtocart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandeepKaur\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandeepKaur\IdeaProjects\demo\NopCommerceTask\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C32115-352F-4737-9BD0-692861805249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DB8217-5CD4-4B9F-8BB9-26587F4AE4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C9BB478-F62B-45C9-883B-6EAE68242771}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>City</t>
   </si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>Phone number</t>
-  </si>
-  <si>
-    <t>Australia</t>
   </si>
   <si>
     <t>Mohali</t>
@@ -414,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8C3080-3B20-4E61-A44D-6180BF446FA1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +423,7 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,24 +436,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="1">
+        <v>1250058</v>
       </c>
       <c r="D2" s="1">
-        <v>1250058</v>
-      </c>
-      <c r="E2" s="1">
         <v>944000111</v>
       </c>
     </row>
